--- a/artfynd/A 52264-2022.xlsx
+++ b/artfynd/A 52264-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104593637</v>
+        <v>104593632</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>473780.3094452888</v>
+        <v>473815.7661137963</v>
       </c>
       <c r="R2" t="n">
-        <v>7013777.427834951</v>
+        <v>7013977.153526685</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104593632</v>
+        <v>104593622</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,38 +804,46 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Vike, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>473815.7661137963</v>
+        <v>473830.905343441</v>
       </c>
       <c r="R3" t="n">
-        <v>7013977.153526685</v>
+        <v>7013897.29666794</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,6 +886,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104593622</v>
+        <v>104593631</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,46 +929,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Vike, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>473830.905343441</v>
+        <v>473812.0075608135</v>
       </c>
       <c r="R4" t="n">
-        <v>7013897.29666794</v>
+        <v>7013958.714830574</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,11 +1003,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104593631</v>
+        <v>104593630</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>473812.0075608135</v>
+        <v>473798.8866438381</v>
       </c>
       <c r="R5" t="n">
-        <v>7013958.714830574</v>
+        <v>7013953.866335354</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104593630</v>
+        <v>104593624</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>473798.8866438381</v>
+        <v>473801.0947980214</v>
       </c>
       <c r="R6" t="n">
-        <v>7013953.866335354</v>
+        <v>7013892.583679659</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104593624</v>
+        <v>104593620</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,25 +1265,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>473801.0947980214</v>
+        <v>473808.0725733605</v>
       </c>
       <c r="R7" t="n">
-        <v>7013892.583679659</v>
+        <v>7013974.062789564</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104593620</v>
+        <v>104593623</v>
       </c>
       <c r="B8" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,34 +1381,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Vike, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>473808.0725733605</v>
+        <v>473722.3678416939</v>
       </c>
       <c r="R8" t="n">
-        <v>7013974.062789564</v>
+        <v>7013918.902128431</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1451,6 +1459,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1477,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104593621</v>
+        <v>104593627</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,25 +1502,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1530,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>473766.1571259646</v>
+        <v>473701.5160585373</v>
       </c>
       <c r="R9" t="n">
-        <v>7013701.408301079</v>
+        <v>7013906.458910029</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1589,10 +1602,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104593623</v>
+        <v>104593628</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,46 +1614,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vike, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>473722.3678416939</v>
+        <v>473726.4678040863</v>
       </c>
       <c r="R10" t="n">
-        <v>7013918.902128431</v>
+        <v>7013923.823926651</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1683,11 +1688,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1714,7 +1714,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104593627</v>
+        <v>104593626</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>473701.5160585373</v>
+        <v>473718.6013391476</v>
       </c>
       <c r="R11" t="n">
-        <v>7013906.458910029</v>
+        <v>7013899.562304306</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104593628</v>
+        <v>104593625</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -1866,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>473726.4678040863</v>
+        <v>473775.8828205758</v>
       </c>
       <c r="R12" t="n">
-        <v>7013923.823926651</v>
+        <v>7013898.645042086</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104593626</v>
+        <v>104593629</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>473718.6013391476</v>
+        <v>473760.983223469</v>
       </c>
       <c r="R13" t="n">
-        <v>7013899.562304306</v>
+        <v>7013952.372943264</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104593634</v>
+        <v>104593637</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>473769.3477768434</v>
+        <v>473780.3094452888</v>
       </c>
       <c r="R14" t="n">
-        <v>7013705.43688098</v>
+        <v>7013777.427834951</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104593636</v>
+        <v>104593621</v>
       </c>
       <c r="B15" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2174,25 +2174,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2202,10 +2202,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>473782.4035598941</v>
+        <v>473766.1571259646</v>
       </c>
       <c r="R15" t="n">
-        <v>7013757.588904253</v>
+        <v>7013701.408301079</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104593625</v>
+        <v>104593634</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>473775.8828205758</v>
+        <v>473769.3477768434</v>
       </c>
       <c r="R16" t="n">
-        <v>7013898.645042086</v>
+        <v>7013705.43688098</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104593629</v>
+        <v>104593636</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>473760.983223469</v>
+        <v>473782.4035598941</v>
       </c>
       <c r="R17" t="n">
-        <v>7013952.372943264</v>
+        <v>7013757.588904253</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 52264-2022.xlsx
+++ b/artfynd/A 52264-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104593632</v>
+        <v>104593637</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>473815.7661137963</v>
+        <v>473780.3094452888</v>
       </c>
       <c r="R2" t="n">
-        <v>7013977.153526685</v>
+        <v>7013777.427834951</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104593622</v>
+        <v>104593632</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,46 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Vike, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>473830.905343441</v>
+        <v>473815.7661137963</v>
       </c>
       <c r="R3" t="n">
-        <v>7013897.29666794</v>
+        <v>7013977.153526685</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -886,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104593631</v>
+        <v>104593622</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,38 +916,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Vike, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>473812.0075608135</v>
+        <v>473830.905343441</v>
       </c>
       <c r="R4" t="n">
-        <v>7013958.714830574</v>
+        <v>7013897.29666794</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,6 +998,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104593630</v>
+        <v>104593631</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>473798.8866438381</v>
+        <v>473812.0075608135</v>
       </c>
       <c r="R5" t="n">
-        <v>7013953.866335354</v>
+        <v>7013958.714830574</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104593624</v>
+        <v>104593630</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>473801.0947980214</v>
+        <v>473798.8866438381</v>
       </c>
       <c r="R6" t="n">
-        <v>7013892.583679659</v>
+        <v>7013953.866335354</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104593620</v>
+        <v>104593624</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,25 +1265,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>473808.0725733605</v>
+        <v>473801.0947980214</v>
       </c>
       <c r="R7" t="n">
-        <v>7013974.062789564</v>
+        <v>7013892.583679659</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104593623</v>
+        <v>104593620</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,42 +1381,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Vike, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>473722.3678416939</v>
+        <v>473808.0725733605</v>
       </c>
       <c r="R8" t="n">
-        <v>7013918.902128431</v>
+        <v>7013974.062789564</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1459,11 +1451,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1490,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104593627</v>
+        <v>104593621</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,25 +1489,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1530,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>473701.5160585373</v>
+        <v>473766.1571259646</v>
       </c>
       <c r="R9" t="n">
-        <v>7013906.458910029</v>
+        <v>7013701.408301079</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1602,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104593628</v>
+        <v>104593623</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1614,38 +1601,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vike, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>473726.4678040863</v>
+        <v>473722.3678416939</v>
       </c>
       <c r="R10" t="n">
-        <v>7013923.823926651</v>
+        <v>7013918.902128431</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,6 +1683,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1714,7 +1714,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104593626</v>
+        <v>104593627</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>473718.6013391476</v>
+        <v>473701.5160585373</v>
       </c>
       <c r="R11" t="n">
-        <v>7013899.562304306</v>
+        <v>7013906.458910029</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104593625</v>
+        <v>104593628</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -1866,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>473775.8828205758</v>
+        <v>473726.4678040863</v>
       </c>
       <c r="R12" t="n">
-        <v>7013898.645042086</v>
+        <v>7013923.823926651</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104593629</v>
+        <v>104593626</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>473760.983223469</v>
+        <v>473718.6013391476</v>
       </c>
       <c r="R13" t="n">
-        <v>7013952.372943264</v>
+        <v>7013899.562304306</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104593637</v>
+        <v>104593634</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>473780.3094452888</v>
+        <v>473769.3477768434</v>
       </c>
       <c r="R14" t="n">
-        <v>7013777.427834951</v>
+        <v>7013705.43688098</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104593621</v>
+        <v>104593636</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2174,25 +2174,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2202,10 +2202,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>473766.1571259646</v>
+        <v>473782.4035598941</v>
       </c>
       <c r="R15" t="n">
-        <v>7013701.408301079</v>
+        <v>7013757.588904253</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104593634</v>
+        <v>104593625</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>473769.3477768434</v>
+        <v>473775.8828205758</v>
       </c>
       <c r="R16" t="n">
-        <v>7013705.43688098</v>
+        <v>7013898.645042086</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104593636</v>
+        <v>104593629</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>473782.4035598941</v>
+        <v>473760.983223469</v>
       </c>
       <c r="R17" t="n">
-        <v>7013757.588904253</v>
+        <v>7013952.372943264</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
